--- a/Messungen1.xlsx
+++ b/Messungen1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvi2\OneDrive\Desktop\Physik\Fortgeschr. Praktikum\V46----Faraday-Effekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V46----Faraday-Effekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E5AA0-A61A-4BF4-BB52-DA398EC0CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{3B9E5AA0-A61A-4BF4-BB52-DA398EC0CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DAE52B5-704A-42A3-872F-4F1E8B314BCB}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{93587555-8607-49FF-AF80-021BFA919A69}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{93587555-8607-49FF-AF80-021BFA919A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve"> GaAs N=1.2*10^18/cm^3, D=1.36 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GaAs N=2.8*10^18/cm^3, D=1.36 mm</t>
-  </si>
-  <si>
-    <t>GaAs rein, D=5.11</t>
   </si>
   <si>
     <t>rad minuten</t>
@@ -58,11 +52,17 @@
   <si>
     <t>2 in °</t>
   </si>
+  <si>
+    <t>Bogenmaß</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,12 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -432,442 +433,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6792999D-1AAB-434F-892D-F9A7B1F5B016}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3">
         <v>54</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
+        <f>(A3+B3/60)</f>
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D3" s="1">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
       <c r="F3">
-        <v>3</v>
+        <f>(D3+E3/60)</f>
+        <v>88.75</v>
       </c>
       <c r="G3">
-        <v>88</v>
+        <f>-(C3-F3)*PI()/(2*5.11*10^(-3)*180)</f>
+        <v>15.113663287817811</v>
       </c>
       <c r="H3">
-        <v>41</v>
-      </c>
-      <c r="I3">
-        <v>71</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>93</v>
-      </c>
-      <c r="L3">
-        <v>48</v>
-      </c>
-      <c r="M3">
         <v>1.06</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>78</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
+        <f>(A4+B4/60)</f>
+        <v>78.416666666666671</v>
+      </c>
+      <c r="D4" s="1">
         <v>86</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>78</v>
-      </c>
       <c r="F4">
-        <v>11</v>
+        <f t="shared" ref="F4:F11" si="0">(D4+E4/60)</f>
+        <v>86.266666666666666</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <f t="shared" ref="G4:G11" si="1">-(C4-F4)*PI()/(2*5.11*10^(-3)*180)</f>
+        <v>13.405904724222578</v>
       </c>
       <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>73</v>
-      </c>
-      <c r="J4">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>89</v>
-      </c>
-      <c r="L4">
-        <v>33</v>
-      </c>
-      <c r="M4">
         <v>1.29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>81</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C11" si="2">(A5+B5/60)</f>
+        <v>81.216666666666669</v>
+      </c>
+      <c r="D5" s="1">
         <v>87</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>44</v>
       </c>
-      <c r="E5">
-        <v>83</v>
-      </c>
       <c r="F5">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>87.733333333333334</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>11.128893306095607</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>78</v>
-      </c>
-      <c r="J5">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>88</v>
-      </c>
-      <c r="L5">
-        <v>58</v>
-      </c>
-      <c r="M5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>79.25</v>
+      </c>
+      <c r="D6" s="1">
         <v>86</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>77</v>
-      </c>
       <c r="F6">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>86.016666666666666</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>11.555832946994414</v>
       </c>
       <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>78</v>
-      </c>
-      <c r="J6">
-        <v>36</v>
-      </c>
-      <c r="K6">
-        <v>86</v>
-      </c>
-      <c r="L6">
-        <v>34</v>
-      </c>
-      <c r="M6">
         <v>1.72</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>74</v>
       </c>
       <c r="B7">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="D7" s="1">
         <v>81</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>73</v>
-      </c>
       <c r="F7">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>81.150000000000006</v>
       </c>
       <c r="G7">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>11.071968020642435</v>
       </c>
       <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>73</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>80</v>
-      </c>
-      <c r="L7">
-        <v>50</v>
-      </c>
-      <c r="M7">
         <v>1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D8" s="1">
         <v>86</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>58</v>
       </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
       <c r="F8">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>86.966666666666669</v>
       </c>
       <c r="G8">
-        <v>82</v>
-      </c>
-      <c r="H8">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>74</v>
-      </c>
-      <c r="J8">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>80</v>
-      </c>
-      <c r="L8">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>21.973160184925355</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.1560000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>46</v>
       </c>
       <c r="B9">
         <v>57</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>46.95</v>
+      </c>
+      <c r="D9" s="1">
         <v>53</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="E9">
-        <v>44</v>
-      </c>
       <c r="F9">
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>53.533333333333331</v>
       </c>
       <c r="G9">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>11.242743877001949</v>
       </c>
       <c r="H9">
-        <v>49</v>
-      </c>
-      <c r="I9">
-        <v>49</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>53</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
         <v>2.34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>28</v>
       </c>
       <c r="B10">
         <v>27</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>28.45</v>
+      </c>
+      <c r="D10" s="1">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>40</v>
       </c>
-      <c r="E10">
-        <v>27</v>
-      </c>
       <c r="F10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>35.666666666666664</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>12.324324300612268</v>
       </c>
       <c r="H10">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <v>40</v>
-      </c>
-      <c r="K10">
-        <v>34</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>67</v>
       </c>
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>67.266666666666666</v>
+      </c>
+      <c r="D11" s="1">
         <v>74</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>54</v>
       </c>
-      <c r="E11">
-        <v>64</v>
-      </c>
       <c r="F11">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>74.900000000000006</v>
       </c>
       <c r="G11">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>13.035890368776965</v>
       </c>
       <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>68</v>
-      </c>
-      <c r="J11">
-        <v>11</v>
-      </c>
-      <c r="K11">
-        <v>72</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
         <v>2.65</v>
       </c>
     </row>

--- a/Messungen1.xlsx
+++ b/Messungen1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudoitmc-my.sharepoint.com/personal/celina_kortmann_study_tu-dortmund_de/Documents/Dokumente/Studium/6. Semester/FP/V46----Faraday-Effekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{3B9E5AA0-A61A-4BF4-BB52-DA398EC0CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DAE52B5-704A-42A3-872F-4F1E8B314BCB}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3B9E5AA0-A61A-4BF4-BB52-DA398EC0CE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BECCA2D-3010-4AA5-9895-22BF9F945F08}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{93587555-8607-49FF-AF80-021BFA919A69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve"> GaAs N=1.2*10^18/cm^3, D=1.36 mm</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Bogenmaß</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -114,6 +117,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6792999D-1AAB-434F-892D-F9A7B1F5B016}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,6 +471,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
@@ -498,8 +508,8 @@
         <v>88.75</v>
       </c>
       <c r="G3">
-        <f>-(C3-F3)*PI()/(2*5.11*10^(-3)*180)</f>
-        <v>15.113663287817811</v>
+        <f>-(C3-F3)*PI()/(2*1.36*10^(-3)*180)</f>
+        <v>56.78736720643311</v>
       </c>
       <c r="H3">
         <v>1.06</v>
@@ -527,8 +537,8 @@
         <v>86.266666666666666</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G11" si="1">-(C4-F4)*PI()/(2*5.11*10^(-3)*180)</f>
-        <v>13.405904724222578</v>
+        <f t="shared" ref="G4:G11" si="1">-(C4-F4)*PI()/(2*1.36*10^(-3)*180)</f>
+        <v>50.370715544689254</v>
       </c>
       <c r="H4">
         <v>1.29</v>
@@ -557,7 +567,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>11.128893306095607</v>
+        <v>41.81517999569747</v>
       </c>
       <c r="H5">
         <v>1.45</v>
@@ -586,7 +596,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>11.555832946994414</v>
+        <v>43.419342911133434</v>
       </c>
       <c r="H6">
         <v>1.72</v>
@@ -615,7 +625,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>11.071968020642435</v>
+        <v>41.60129160697268</v>
       </c>
       <c r="H7">
         <v>1.96</v>
@@ -644,7 +654,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>21.973160184925355</v>
+        <v>82.560918047771025</v>
       </c>
       <c r="H8" s="2">
         <v>2.1560000000000001</v>
@@ -673,7 +683,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>11.242743877001949</v>
+        <v>42.242956773147036</v>
       </c>
       <c r="H9">
         <v>2.34</v>
@@ -702,7 +712,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>12.324324300612268</v>
+        <v>46.306836158918159</v>
       </c>
       <c r="H10">
         <v>2.5099999999999998</v>
@@ -731,7 +741,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>13.035890368776965</v>
+        <v>48.980441017978158</v>
       </c>
       <c r="H11">
         <v>2.65</v>
